--- a/biology/Zoologie/Himerometridae/Himerometridae.xlsx
+++ b/biology/Zoologie/Himerometridae/Himerometridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Himerometridae sont une famille de crinoïdes de l'ordre des Comatulida.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des comatules de taille variable, portant généralement dix bras ou plus (notamment chez la seule espèce d'Afrique du Sud). Elles portent des épines ou d'autres proéminences sur les segments les plus distaux de leurs cirrhes, dans le plan dorsomédian. Les pinnules orales ne sont pas denticulées mais présentent une crête basale le long de la surface dorsale ou le long du bord faisant face au bout des bras, ou les deux. La bouche est plus ou moins centrale sur le disque[1].
-On trouve des espèces de cette famille dans l'indo-pacifique, de la zone intertidale à plus de 110 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des comatules de taille variable, portant généralement dix bras ou plus (notamment chez la seule espèce d'Afrique du Sud). Elles portent des épines ou d'autres proéminences sur les segments les plus distaux de leurs cirrhes, dans le plan dorsomédian. Les pinnules orales ne sont pas denticulées mais présentent une crête basale le long de la surface dorsale ou le long du bord faisant face au bout des bras, ou les deux. La bouche est plus ou moins centrale sur le disque.
+On trouve des espèces de cette famille dans l'indo-pacifique, de la zone intertidale à plus de 110 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (13 avril 2014) :
 genre Amphimetra AH Clark, 1909 -- 6 espèces
 genre Craspedometra AH Clark, 1909 -- 1 espèce
 genre Heterometra AH Clark, 1909 -- 26 espèces
